--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_ex02_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_ex02_end.xlsx
@@ -576,7 +576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lappland"]  By the way, can you really call yourselves a "Family" after you bolted from Siracusa to get away from all the responsibilities of being a Family? Can you still call yourselves "Sicilian?"
+    <t xml:space="preserve">[name="Lappland"]  By the way, can you really call yourselves a 'Family' after you bolted from Siracusa to get away from all the responsibilities of being a Family? Can you still call yourselves 'Sicilian?'
 </t>
   </si>
   <si>
